--- a/em_honda.xlsx
+++ b/em_honda.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XPS 15 9560\Github\KAIHO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12953C3-505D-462A-B353-682E9A526473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="5160" yWindow="2304" windowWidth="12132" windowHeight="10728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -736,8 +742,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -800,6 +806,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -846,7 +860,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -878,9 +892,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -912,6 +944,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1087,19 +1137,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="17.47265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -1107,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -1115,7 +1170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -1123,7 +1178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -1131,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -1139,7 +1194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -1147,7 +1202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>9</v>
       </c>
@@ -1155,7 +1210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -1163,7 +1218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -1171,7 +1226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>13</v>
       </c>
@@ -1179,7 +1234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>15</v>
       </c>
@@ -1187,7 +1242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>18</v>
       </c>
@@ -1195,7 +1250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>19</v>
       </c>
@@ -1203,7 +1258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>20</v>
       </c>
@@ -1211,7 +1266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>21</v>
       </c>
@@ -1219,7 +1274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>22</v>
       </c>
@@ -1227,7 +1282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>23</v>
       </c>
@@ -1235,7 +1290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>25</v>
       </c>
@@ -1243,7 +1298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>26</v>
       </c>
@@ -1251,7 +1306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>27</v>
       </c>
@@ -1259,7 +1314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>28</v>
       </c>
@@ -1267,7 +1322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>29</v>
       </c>
@@ -1275,7 +1330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>30</v>
       </c>
@@ -1283,7 +1338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>31</v>
       </c>
@@ -1291,7 +1346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>32</v>
       </c>
@@ -1299,7 +1354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>33</v>
       </c>
@@ -1307,7 +1362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>34</v>
       </c>
@@ -1315,7 +1370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>35</v>
       </c>
@@ -1323,7 +1378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>36</v>
       </c>
@@ -1331,7 +1386,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>37</v>
       </c>
@@ -1339,7 +1394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>38</v>
       </c>
@@ -1347,7 +1402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>39</v>
       </c>
@@ -1355,7 +1410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>40</v>
       </c>
@@ -1363,7 +1418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>41</v>
       </c>
@@ -1371,7 +1426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>42</v>
       </c>
@@ -1379,7 +1434,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>43</v>
       </c>
@@ -1387,7 +1442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>44</v>
       </c>
@@ -1395,7 +1450,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>45</v>
       </c>
@@ -1403,7 +1458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>46</v>
       </c>
@@ -1411,7 +1466,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>47</v>
       </c>
@@ -1419,7 +1474,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>48</v>
       </c>
@@ -1427,7 +1482,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>49</v>
       </c>
@@ -1435,7 +1490,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>50</v>
       </c>
@@ -1443,7 +1498,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>51</v>
       </c>
@@ -1451,7 +1506,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>52</v>
       </c>
@@ -1459,7 +1514,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>53</v>
       </c>
@@ -1467,7 +1522,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>54</v>
       </c>
@@ -1475,7 +1530,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>55</v>
       </c>
@@ -1483,7 +1538,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>56</v>
       </c>
@@ -1491,7 +1546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>57</v>
       </c>
@@ -1499,7 +1554,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>58</v>
       </c>
@@ -1507,7 +1562,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>59</v>
       </c>
@@ -1515,7 +1570,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>60</v>
       </c>
@@ -1523,7 +1578,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>61</v>
       </c>
@@ -1531,7 +1586,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>62</v>
       </c>
@@ -1539,7 +1594,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>63</v>
       </c>
@@ -1547,7 +1602,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>64</v>
       </c>
@@ -1555,7 +1610,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>65</v>
       </c>
@@ -1563,7 +1618,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>66</v>
       </c>
@@ -1571,7 +1626,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>67</v>
       </c>
@@ -1579,7 +1634,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>68</v>
       </c>
@@ -1587,7 +1642,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>70</v>
       </c>
@@ -1595,7 +1650,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>71</v>
       </c>
@@ -1603,7 +1658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>72</v>
       </c>
@@ -1611,7 +1666,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>73</v>
       </c>
@@ -1619,7 +1674,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>74</v>
       </c>
@@ -1627,7 +1682,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>75</v>
       </c>
@@ -1635,7 +1690,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>76</v>
       </c>
@@ -1643,7 +1698,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>77</v>
       </c>
@@ -1651,7 +1706,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>78</v>
       </c>
@@ -1659,7 +1714,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>79</v>
       </c>
@@ -1667,7 +1722,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>80</v>
       </c>
@@ -1675,7 +1730,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>81</v>
       </c>
@@ -1683,7 +1738,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>82</v>
       </c>
@@ -1691,7 +1746,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>83</v>
       </c>
@@ -1699,7 +1754,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>84</v>
       </c>
@@ -1707,7 +1762,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>85</v>
       </c>
@@ -1715,7 +1770,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>86</v>
       </c>
@@ -1723,7 +1778,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>87</v>
       </c>
@@ -1731,7 +1786,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>88</v>
       </c>
@@ -1739,7 +1794,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>89</v>
       </c>
@@ -1747,7 +1802,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>90</v>
       </c>
@@ -1755,7 +1810,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>91</v>
       </c>
@@ -1763,7 +1818,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>92</v>
       </c>
@@ -1771,7 +1826,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>93</v>
       </c>
@@ -1779,7 +1834,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>94</v>
       </c>
@@ -1787,7 +1842,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>95</v>
       </c>
@@ -1795,7 +1850,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>96</v>
       </c>
@@ -1803,7 +1858,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>98</v>
       </c>
@@ -1811,7 +1866,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>99</v>
       </c>
@@ -1819,7 +1874,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>100</v>
       </c>
@@ -1827,7 +1882,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>101</v>
       </c>
@@ -1835,7 +1890,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>102</v>
       </c>
@@ -1843,7 +1898,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>103</v>
       </c>
@@ -1851,7 +1906,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>104</v>
       </c>
@@ -1859,7 +1914,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>108</v>
       </c>
@@ -1867,7 +1922,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>113</v>
       </c>
@@ -1875,7 +1930,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>120</v>
       </c>
@@ -1883,7 +1938,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>121</v>
       </c>
@@ -1891,7 +1946,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>122</v>
       </c>
@@ -1899,7 +1954,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>123</v>
       </c>
@@ -1907,7 +1962,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>125</v>
       </c>
@@ -1915,7 +1970,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>126</v>
       </c>
@@ -1923,7 +1978,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>127</v>
       </c>
@@ -1931,7 +1986,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>128</v>
       </c>
@@ -1939,7 +1994,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>129</v>
       </c>
@@ -1947,7 +2002,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>130</v>
       </c>
@@ -1955,7 +2010,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>131</v>
       </c>
@@ -1963,7 +2018,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>132</v>
       </c>
@@ -1971,7 +2026,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>133</v>
       </c>
@@ -1979,7 +2034,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>135</v>
       </c>
@@ -1987,7 +2042,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>136</v>
       </c>
@@ -1995,7 +2050,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>137</v>
       </c>
@@ -2003,7 +2058,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>138</v>
       </c>
@@ -2011,7 +2066,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>139</v>
       </c>
@@ -2019,7 +2074,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>140</v>
       </c>
@@ -2027,7 +2082,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>141</v>
       </c>
@@ -2035,7 +2090,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>142</v>
       </c>
@@ -2043,7 +2098,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>143</v>
       </c>
@@ -2051,7 +2106,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>144</v>
       </c>
@@ -2059,7 +2114,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>145</v>
       </c>
@@ -2067,7 +2122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>146</v>
       </c>
@@ -2075,7 +2130,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>147</v>
       </c>
@@ -2083,7 +2138,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>148</v>
       </c>
@@ -2091,7 +2146,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>149</v>
       </c>
@@ -2099,7 +2154,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>150</v>
       </c>
@@ -2107,7 +2162,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>151</v>
       </c>
@@ -2115,7 +2170,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>152</v>
       </c>
@@ -2123,7 +2178,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>153</v>
       </c>
@@ -2131,7 +2186,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>154</v>
       </c>
@@ -2139,7 +2194,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>156</v>
       </c>
@@ -2147,7 +2202,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>157</v>
       </c>
@@ -2155,7 +2210,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>158</v>
       </c>
@@ -2163,7 +2218,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>159</v>
       </c>
@@ -2171,7 +2226,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>160</v>
       </c>
@@ -2179,7 +2234,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>161</v>
       </c>
@@ -2187,7 +2242,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>164</v>
       </c>
@@ -2195,7 +2250,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>165</v>
       </c>
@@ -2203,7 +2258,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>166</v>
       </c>
@@ -2211,7 +2266,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>167</v>
       </c>
@@ -2219,7 +2274,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>168</v>
       </c>
@@ -2227,7 +2282,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>169</v>
       </c>
@@ -2235,7 +2290,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>171</v>
       </c>
@@ -2243,7 +2298,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>172</v>
       </c>
@@ -2251,7 +2306,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>173</v>
       </c>
@@ -2259,7 +2314,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>174</v>
       </c>
@@ -2267,7 +2322,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>175</v>
       </c>
@@ -2275,7 +2330,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>176</v>
       </c>
@@ -2283,7 +2338,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>177</v>
       </c>
@@ -2291,7 +2346,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>178</v>
       </c>
@@ -2299,7 +2354,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>179</v>
       </c>
@@ -2307,7 +2362,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>180</v>
       </c>
@@ -2315,7 +2370,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>181</v>
       </c>
@@ -2323,7 +2378,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>182</v>
       </c>
@@ -2331,7 +2386,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>183</v>
       </c>
@@ -2339,7 +2394,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>184</v>
       </c>
@@ -2347,7 +2402,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>185</v>
       </c>
@@ -2355,7 +2410,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>186</v>
       </c>
@@ -2363,7 +2418,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>187</v>
       </c>
@@ -2371,7 +2426,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>188</v>
       </c>
@@ -2379,7 +2434,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>189</v>
       </c>
@@ -2387,7 +2442,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>192</v>
       </c>
@@ -2395,7 +2450,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>193</v>
       </c>
@@ -2403,7 +2458,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>196</v>
       </c>
@@ -2411,7 +2466,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>197</v>
       </c>
@@ -2419,7 +2474,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
         <v>198</v>
       </c>
@@ -2427,7 +2482,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
         <v>199</v>
       </c>
@@ -2435,7 +2490,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>201</v>
       </c>
@@ -2443,7 +2498,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
         <v>202</v>
       </c>
@@ -2451,7 +2506,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
         <v>203</v>
       </c>
@@ -2459,7 +2514,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>204</v>
       </c>
@@ -2467,7 +2522,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
         <v>205</v>
       </c>
@@ -2475,7 +2530,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
         <v>206</v>
       </c>
@@ -2483,7 +2538,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>207</v>
       </c>
@@ -2491,7 +2546,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
         <v>208</v>
       </c>
@@ -2499,7 +2554,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
         <v>209</v>
       </c>
@@ -2507,7 +2562,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>210</v>
       </c>
@@ -2515,7 +2570,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
         <v>211</v>
       </c>
@@ -2523,7 +2578,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>212</v>
       </c>
@@ -2531,7 +2586,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>213</v>
       </c>
@@ -2539,7 +2594,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>214</v>
       </c>
@@ -2547,7 +2602,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>215</v>
       </c>
@@ -2555,7 +2610,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>216</v>
       </c>
@@ -2563,7 +2618,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>217</v>
       </c>
@@ -2571,7 +2626,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>218</v>
       </c>
@@ -2579,7 +2634,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
         <v>219</v>
       </c>
@@ -2587,7 +2642,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1">
         <v>220</v>
       </c>
@@ -2595,7 +2650,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
         <v>221</v>
       </c>
@@ -2603,7 +2658,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>222</v>
       </c>
@@ -2611,7 +2666,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1">
         <v>223</v>
       </c>
@@ -2619,7 +2674,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
         <v>224</v>
       </c>
@@ -2627,7 +2682,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
         <v>225</v>
       </c>
@@ -2635,7 +2690,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
         <v>226</v>
       </c>
@@ -2643,7 +2698,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
         <v>227</v>
       </c>
@@ -2651,7 +2706,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>228</v>
       </c>
@@ -2659,7 +2714,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>229</v>
       </c>
@@ -2667,7 +2722,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>230</v>
       </c>
@@ -2675,7 +2730,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>231</v>
       </c>
@@ -2683,7 +2738,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>232</v>
       </c>
@@ -2691,7 +2746,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>233</v>
       </c>
@@ -2699,7 +2754,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
         <v>234</v>
       </c>
@@ -2707,7 +2762,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
         <v>235</v>
       </c>
@@ -2715,7 +2770,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
         <v>236</v>
       </c>
@@ -2723,7 +2778,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>237</v>
       </c>
@@ -2731,7 +2786,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
         <v>238</v>
       </c>
@@ -2739,7 +2794,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
         <v>239</v>
       </c>
@@ -2747,7 +2802,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
         <v>240</v>
       </c>
@@ -2755,7 +2810,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
         <v>241</v>
       </c>
@@ -2763,7 +2818,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
         <v>242</v>
       </c>
@@ -2771,7 +2826,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1">
         <v>243</v>
       </c>
@@ -2779,7 +2834,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1">
         <v>244</v>
       </c>
@@ -2787,7 +2842,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1">
         <v>246</v>
       </c>
@@ -2795,7 +2850,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1">
         <v>247</v>
       </c>
@@ -2803,7 +2858,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1">
         <v>248</v>
       </c>
@@ -2811,7 +2866,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1">
         <v>249</v>
       </c>
@@ -2819,7 +2874,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1">
         <v>250</v>
       </c>
@@ -2827,7 +2882,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1">
         <v>251</v>
       </c>
@@ -2835,7 +2890,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1">
         <v>252</v>
       </c>
@@ -2843,7 +2898,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
         <v>253</v>
       </c>
@@ -2851,7 +2906,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
         <v>254</v>
       </c>
@@ -2859,7 +2914,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
         <v>255</v>
       </c>
@@ -2867,7 +2922,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
         <v>256</v>
       </c>
@@ -2875,7 +2930,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
         <v>257</v>
       </c>
@@ -2883,7 +2938,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
         <v>258</v>
       </c>
@@ -2891,7 +2946,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>259</v>
       </c>
@@ -2899,7 +2954,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1">
         <v>260</v>
       </c>
@@ -2907,7 +2962,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1">
         <v>261</v>
       </c>
@@ -2915,7 +2970,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1">
         <v>262</v>
       </c>
@@ -2923,7 +2978,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1">
         <v>263</v>
       </c>
@@ -2931,7 +2986,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1">
         <v>264</v>
       </c>
@@ -2939,7 +2994,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1">
         <v>265</v>
       </c>
@@ -2947,7 +3002,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1">
         <v>266</v>
       </c>
@@ -2955,7 +3010,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1">
         <v>267</v>
       </c>
@@ -2963,7 +3018,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1">
         <v>268</v>
       </c>
@@ -2971,7 +3026,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1">
         <v>269</v>
       </c>
@@ -2979,7 +3034,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1">
         <v>270</v>
       </c>
@@ -2987,7 +3042,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1">
         <v>271</v>
       </c>
@@ -2995,7 +3050,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1">
         <v>272</v>
       </c>
@@ -3003,7 +3058,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1">
         <v>273</v>
       </c>
@@ -3011,7 +3066,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1">
         <v>274</v>
       </c>
@@ -3019,7 +3074,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1">
         <v>275</v>
       </c>
@@ -3027,7 +3082,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1">
         <v>276</v>
       </c>
@@ -3035,7 +3090,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
         <v>278</v>
       </c>
@@ -3043,7 +3098,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
         <v>280</v>
       </c>
@@ -3051,7 +3106,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
         <v>281</v>
       </c>
@@ -3059,7 +3114,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>282</v>
       </c>
@@ -3067,7 +3122,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
         <v>283</v>
       </c>
@@ -3075,7 +3130,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
         <v>284</v>
       </c>
@@ -3083,7 +3138,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
         <v>285</v>
       </c>
@@ -3091,7 +3146,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
         <v>286</v>
       </c>
@@ -3099,7 +3154,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1">
         <v>287</v>
       </c>
@@ -3107,7 +3162,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1">
         <v>288</v>
       </c>
@@ -3115,7 +3170,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
         <v>289</v>
       </c>
@@ -3123,7 +3178,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1">
         <v>290</v>
       </c>
@@ -3131,7 +3186,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
         <v>291</v>
       </c>
@@ -3139,7 +3194,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
         <v>292</v>
       </c>
@@ -3147,7 +3202,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
         <v>293</v>
       </c>
@@ -3155,7 +3210,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
         <v>294</v>
       </c>
@@ -3163,7 +3218,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
         <v>295</v>
       </c>
@@ -3171,7 +3226,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
         <v>296</v>
       </c>
@@ -3179,7 +3234,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1">
         <v>297</v>
       </c>
@@ -3187,7 +3242,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1">
         <v>298</v>
       </c>
@@ -3195,7 +3250,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1">
         <v>299</v>
       </c>
@@ -3203,7 +3258,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1">
         <v>300</v>
       </c>
@@ -3211,7 +3266,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1">
         <v>301</v>
       </c>
@@ -3219,7 +3274,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1">
         <v>302</v>
       </c>
@@ -3227,7 +3282,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1">
         <v>303</v>
       </c>
@@ -3235,7 +3290,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1">
         <v>304</v>
       </c>
@@ -3243,7 +3298,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1">
         <v>305</v>
       </c>
@@ -3251,7 +3306,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1">
         <v>306</v>
       </c>
@@ -3259,7 +3314,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1">
         <v>307</v>
       </c>
@@ -3267,7 +3322,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1">
         <v>308</v>
       </c>
@@ -3275,7 +3330,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1">
         <v>309</v>
       </c>
@@ -3283,7 +3338,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1">
         <v>310</v>
       </c>
@@ -3291,7 +3346,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1">
         <v>311</v>
       </c>
@@ -3299,7 +3354,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1">
         <v>312</v>
       </c>
@@ -3307,7 +3362,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1">
         <v>313</v>
       </c>
@@ -3315,7 +3370,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1">
         <v>314</v>
       </c>
@@ -3323,7 +3378,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1">
         <v>315</v>
       </c>
@@ -3331,7 +3386,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1">
         <v>316</v>
       </c>
@@ -3339,7 +3394,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1">
         <v>317</v>
       </c>
@@ -3347,7 +3402,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1">
         <v>318</v>
       </c>
@@ -3355,7 +3410,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1">
         <v>319</v>
       </c>
